--- a/moedas.xlsx
+++ b/moedas.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.046196</v>
+        <v>5.0705</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.508023857</v>
+        <v>5.533056362</v>
       </c>
     </row>
   </sheetData>

--- a/moedas.xlsx
+++ b/moedas.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.0705</v>
+        <v>5.0651</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.533056362</v>
+        <v>5.527474725</v>
       </c>
     </row>
   </sheetData>
